--- a/docs/CPM-65 System Calls.xlsx
+++ b/docs/CPM-65 System Calls.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="617" yWindow="69" windowWidth="19406" windowHeight="11760"/>
+    <workbookView xWindow="617" yWindow="69" windowWidth="19406" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BDOS" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="BIOS" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="181">
   <si>
     <t>BDOS Command table</t>
   </si>
@@ -334,6 +334,231 @@
   </si>
   <si>
     <t>$1F</t>
+  </si>
+  <si>
+    <t>BIOS Command table</t>
+  </si>
+  <si>
+    <t>BASE+$00</t>
+  </si>
+  <si>
+    <t>Cold Boot</t>
+  </si>
+  <si>
+    <t>Select Disk</t>
+  </si>
+  <si>
+    <t>Home Disk</t>
+  </si>
+  <si>
+    <t>Set  Track</t>
+  </si>
+  <si>
+    <t>Set Sector</t>
+  </si>
+  <si>
+    <t>Read Block</t>
+  </si>
+  <si>
+    <t>Write Block</t>
+  </si>
+  <si>
+    <t>List Status</t>
+  </si>
+  <si>
+    <t>Get BIOS Version</t>
+  </si>
+  <si>
+    <t>Monitor entry</t>
+  </si>
+  <si>
+    <t>Set Timer 1</t>
+  </si>
+  <si>
+    <t>Get Timer 1</t>
+  </si>
+  <si>
+    <t>Set Timer 2</t>
+  </si>
+  <si>
+    <t>Get Timer 2</t>
+  </si>
+  <si>
+    <t>I2C Clear</t>
+  </si>
+  <si>
+    <t>I2C Stop</t>
+  </si>
+  <si>
+    <t>Entry Address</t>
+  </si>
+  <si>
+    <t>I2C address device</t>
+  </si>
+  <si>
+    <t>I2C send 16 Bit reg</t>
+  </si>
+  <si>
+    <t>I2C read byte from device</t>
+  </si>
+  <si>
+    <t>I2C write byte to device</t>
+  </si>
+  <si>
+    <t>I2C read last byte</t>
+  </si>
+  <si>
+    <t>I2C load ID from EEPROM</t>
+  </si>
+  <si>
+    <t>I2C get time</t>
+  </si>
+  <si>
+    <t>I2C get date</t>
+  </si>
+  <si>
+    <t>BASE+$03</t>
+  </si>
+  <si>
+    <t>BASE+$06</t>
+  </si>
+  <si>
+    <t>BASE+$09</t>
+  </si>
+  <si>
+    <t>BASE+$12</t>
+  </si>
+  <si>
+    <t>BASE+$15</t>
+  </si>
+  <si>
+    <t>BASE+$18</t>
+  </si>
+  <si>
+    <t>BASE+$21</t>
+  </si>
+  <si>
+    <t>BASE+$24</t>
+  </si>
+  <si>
+    <t>BASE+$27</t>
+  </si>
+  <si>
+    <t>BASE+$30</t>
+  </si>
+  <si>
+    <t>BASE+$0C</t>
+  </si>
+  <si>
+    <t>BASE+$0F</t>
+  </si>
+  <si>
+    <t>BASE+$1B</t>
+  </si>
+  <si>
+    <t>BASE+$1E</t>
+  </si>
+  <si>
+    <t>BASE+$2A</t>
+  </si>
+  <si>
+    <t>BASE+$2D</t>
+  </si>
+  <si>
+    <t>BASE+$33</t>
+  </si>
+  <si>
+    <t>BASE+$36</t>
+  </si>
+  <si>
+    <t>BASE+$39</t>
+  </si>
+  <si>
+    <t>BASE+$3F</t>
+  </si>
+  <si>
+    <t>BASE+$3C</t>
+  </si>
+  <si>
+    <t>BASE+$42</t>
+  </si>
+  <si>
+    <t>BASE+$45</t>
+  </si>
+  <si>
+    <t>BASE+$48</t>
+  </si>
+  <si>
+    <t>BASE+$4B</t>
+  </si>
+  <si>
+    <t>BASE+$4E</t>
+  </si>
+  <si>
+    <t>BASE+$51</t>
+  </si>
+  <si>
+    <t>BASE+$54</t>
+  </si>
+  <si>
+    <t>BASE+$57</t>
+  </si>
+  <si>
+    <t>BASE+$5A</t>
+  </si>
+  <si>
+    <t>no key</t>
+  </si>
+  <si>
+    <t>^C if BREAK pressed</t>
+  </si>
+  <si>
+    <t>chr</t>
+  </si>
+  <si>
+    <t>to send</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
+    <t>disk nr</t>
+  </si>
+  <si>
+    <t>0..7</t>
+  </si>
+  <si>
+    <t>reset all vectors &amp; I/O and do warm boot</t>
+  </si>
+  <si>
+    <t>select default drive</t>
+  </si>
+  <si>
+    <t>unused, does nothing</t>
+  </si>
+  <si>
+    <t>set drive to track 0</t>
+  </si>
+  <si>
+    <t>select disk and set DPH</t>
+  </si>
+  <si>
+    <t>pointer to sector nr</t>
+  </si>
+  <si>
+    <t>24 bit sector nr. in page 0 indexed by A</t>
+  </si>
+  <si>
+    <t>$FB</t>
+  </si>
+  <si>
+    <t>always sector not found</t>
+  </si>
+  <si>
+    <t>read 1 page to (DMA)</t>
+  </si>
+  <si>
+    <t>write 1 page from (DMA)</t>
   </si>
 </sst>
 </file>
@@ -704,8 +929,8 @@
   </sheetPr>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
@@ -1683,12 +1908,958 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.3046875" customWidth="1"/>
+    <col min="16" max="16" width="74.53515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1"/>
+      <c r="B4" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="5"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2">
+        <v>1</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2">
+        <v>1</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="29.15">
+      <c r="A16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2">
+        <v>1</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2">
+        <v>1</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2">
+        <v>1</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2">
+        <v>1</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2">
+        <v>1</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2">
+        <v>1</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2">
+        <v>1</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2">
+        <v>1</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2">
+        <v>1</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2">
+        <v>1</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2">
+        <v>1</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2">
+        <v>1</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2">
+        <v>1</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2">
+        <v>1</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P29" s="2"/>
+    </row>
+    <row r="30" spans="1:16" ht="29.15">
+      <c r="A30" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2">
+        <v>1</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="1:16" ht="29.15">
+      <c r="A31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2">
+        <v>1</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2">
+        <v>1</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="1:16" ht="29.15">
+      <c r="A33" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2">
+        <v>1</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P33" s="2"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2">
+        <v>1</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P34" s="2"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2">
+        <v>1</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P35" s="2"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2">
+        <v>1</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P36" s="2"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2">
+        <v>1</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P37" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
